--- a/ALTIUM_EXCEL_DB.xlsx
+++ b/ALTIUM_EXCEL_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ars/Documents/ALTIUM_ARS/DBAltiumExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97219E2-E37A-A544-B5FE-779905F973BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD191FDF-B9FE-E34F-8F67-CCE3F6E354D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22720" windowHeight="12340" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6040" windowWidth="38400" windowHeight="11780" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transistors" sheetId="11" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="Switches" sheetId="12" r:id="rId5"/>
     <sheet name="Capacitors" sheetId="2" r:id="rId6"/>
     <sheet name="Connectors" sheetId="3" r:id="rId7"/>
-    <sheet name="IC" sheetId="4" r:id="rId8"/>
-    <sheet name="OpAmp" sheetId="5" r:id="rId9"/>
-    <sheet name="Relays" sheetId="6" r:id="rId10"/>
+    <sheet name="Mechanical" sheetId="13" r:id="rId8"/>
+    <sheet name="IC" sheetId="4" r:id="rId9"/>
+    <sheet name="OpAmp" sheetId="5" r:id="rId10"/>
+    <sheet name="Relays" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10943" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10976" uniqueCount="2207">
   <si>
     <t>Part Number</t>
   </si>
@@ -6625,6 +6626,36 @@
   </si>
   <si>
     <t>LED_RED</t>
+  </si>
+  <si>
+    <t>MEC001_ARS</t>
+  </si>
+  <si>
+    <t>HOLE M3</t>
+  </si>
+  <si>
+    <t>Hole 3mm diamter for M3 screws</t>
+  </si>
+  <si>
+    <t>DBAltiumExcel\Lib\Sch_lib\Mechanicals.SchLib</t>
+  </si>
+  <si>
+    <t>Hole_3mm</t>
+  </si>
+  <si>
+    <t>Hole_P_3mm</t>
+  </si>
+  <si>
+    <t>HOLE M3 Plated</t>
+  </si>
+  <si>
+    <t>Hole 3mm plated diamter for M3 screws</t>
+  </si>
+  <si>
+    <t>HOLE 3mm</t>
+  </si>
+  <si>
+    <t>HOLE P 3mm</t>
   </si>
 </sst>
 </file>
@@ -7205,6 +7236,678 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S101"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5"/>
+    <col min="3" max="3" width="63.1640625" customWidth="1"/>
+    <col min="4" max="7" width="11.5"/>
+    <col min="8" max="8" width="36.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5"/>
+    <col min="10" max="10" width="40.83203125" customWidth="1"/>
+    <col min="11" max="1025" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -7636,7 +8339,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A853" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D853" sqref="D853:D862"/>
+      <selection pane="bottomLeft" activeCell="G853" sqref="G853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41943,8 +42646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42698,11 +43401,143 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CDF8A5-68FC-EC44-B198-952DA1F9C1ED}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="53.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43306,676 +44141,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S101"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5"/>
-    <col min="3" max="3" width="63.1640625" customWidth="1"/>
-    <col min="4" max="7" width="11.5"/>
-    <col min="8" max="8" width="36.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5"/>
-    <col min="10" max="10" width="40.83203125" customWidth="1"/>
-    <col min="11" max="1025" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1993</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1996</v>
-      </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1998</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1999</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2001</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1996</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2005</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2001</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1996</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2007</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2008</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2009</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1996</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>